--- a/stormworks.tiles.xlsx
+++ b/stormworks.tiles.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1" documentId="8_{E0FF7D5E-8851-4716-9E8A-CF9B9001E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E30E488-446C-46E8-8666-F11B0D226C76}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="1500" windowWidth="20565" windowHeight="15435" xr2:uid="{2BF13900-1630-4CE4-84C9-48E2FCED009C}"/>
+    <workbookView xWindow="2580" yWindow="795" windowWidth="33150" windowHeight="18990" xr2:uid="{2BF13900-1630-4CE4-84C9-48E2FCED009C}"/>
   </bookViews>
   <sheets>
     <sheet name="v1.6.12" sheetId="1" r:id="rId1"/>
@@ -2560,6 +2560,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2862,8 +2866,8 @@
   <dimension ref="A1:D799"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B580" sqref="B580"/>
+      <pane ySplit="1" topLeftCell="A462" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B469" sqref="B469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
